--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.741769</v>
+        <v>13.26539866666667</v>
       </c>
       <c r="H2">
-        <v>56.225307</v>
+        <v>39.796196</v>
       </c>
       <c r="I2">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="J2">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.448064</v>
+        <v>0.07585433333333333</v>
       </c>
       <c r="N2">
-        <v>1.344192</v>
+        <v>0.227563</v>
       </c>
       <c r="O2">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="P2">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="Q2">
-        <v>8.397511985216001</v>
+        <v>1.006237972260889</v>
       </c>
       <c r="R2">
-        <v>75.57760786694401</v>
+        <v>9.056141750347999</v>
       </c>
       <c r="S2">
-        <v>0.02515201645258976</v>
+        <v>0.003959788664327441</v>
       </c>
       <c r="T2">
-        <v>0.02515201645258976</v>
+        <v>0.003959788664327441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.741769</v>
+        <v>13.26539866666667</v>
       </c>
       <c r="H3">
-        <v>56.225307</v>
+        <v>39.796196</v>
       </c>
       <c r="I3">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="J3">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.854428</v>
       </c>
       <c r="O3">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="P3">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="Q3">
-        <v>55.315881401044</v>
+        <v>39.15250579509867</v>
       </c>
       <c r="R3">
-        <v>497.842932609396</v>
+        <v>352.3725521558881</v>
       </c>
       <c r="S3">
-        <v>0.1656807351436933</v>
+        <v>0.154074535946105</v>
       </c>
       <c r="T3">
-        <v>0.1656807351436933</v>
+        <v>0.154074535946105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.741769</v>
+        <v>13.26539866666667</v>
       </c>
       <c r="H4">
-        <v>56.225307</v>
+        <v>39.796196</v>
       </c>
       <c r="I4">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="J4">
-        <v>0.2218531826860132</v>
+        <v>0.164744212542501</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5526053333333333</v>
+        <v>0.1285356666666667</v>
       </c>
       <c r="N4">
-        <v>1.657816</v>
+        <v>0.385607</v>
       </c>
       <c r="O4">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="P4">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="Q4">
-        <v>10.35680150550133</v>
+        <v>1.705076861219112</v>
       </c>
       <c r="R4">
-        <v>93.211213549512</v>
+        <v>15.345691750972</v>
       </c>
       <c r="S4">
-        <v>0.03102043108973014</v>
+        <v>0.006709887932068535</v>
       </c>
       <c r="T4">
-        <v>0.03102043108973014</v>
+        <v>0.006709887932068533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>161.316902</v>
       </c>
       <c r="I5">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="J5">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.448064</v>
+        <v>0.07585433333333333</v>
       </c>
       <c r="N5">
-        <v>1.344192</v>
+        <v>0.227563</v>
       </c>
       <c r="O5">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="P5">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="Q5">
-        <v>24.09343212590933</v>
+        <v>4.078862018869556</v>
       </c>
       <c r="R5">
-        <v>216.840889133184</v>
+        <v>36.709758169826</v>
       </c>
       <c r="S5">
-        <v>0.07216404124187013</v>
+        <v>0.01605130399659356</v>
       </c>
       <c r="T5">
-        <v>0.07216404124187013</v>
+        <v>0.01605130399659356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>161.316902</v>
       </c>
       <c r="I6">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="J6">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.854428</v>
       </c>
       <c r="O6">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="P6">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="Q6">
         <v>158.7076548824507</v>
@@ -818,10 +818,10 @@
         <v>1428.368893942056</v>
       </c>
       <c r="S6">
-        <v>0.4753571717174107</v>
+        <v>0.6245528295195173</v>
       </c>
       <c r="T6">
-        <v>0.4753571717174107</v>
+        <v>0.6245528295195173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>161.316902</v>
       </c>
       <c r="I7">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="J7">
-        <v>0.6365224138259964</v>
+        <v>0.6678031736949381</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5526053333333333</v>
+        <v>0.1285356666666667</v>
       </c>
       <c r="N7">
-        <v>1.657816</v>
+        <v>0.385607</v>
       </c>
       <c r="O7">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="P7">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="Q7">
-        <v>29.71486013400355</v>
+        <v>6.911658514390446</v>
       </c>
       <c r="R7">
-        <v>267.433741206032</v>
+        <v>62.20492662951401</v>
       </c>
       <c r="S7">
-        <v>0.08900120086671559</v>
+        <v>0.0271990401788272</v>
       </c>
       <c r="T7">
-        <v>0.08900120086671559</v>
+        <v>0.0271990401788272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.964182</v>
+        <v>13.48348233333333</v>
       </c>
       <c r="H8">
-        <v>35.892546</v>
+        <v>40.450447</v>
       </c>
       <c r="I8">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="J8">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.448064</v>
+        <v>0.07585433333333333</v>
       </c>
       <c r="N8">
-        <v>1.344192</v>
+        <v>0.227563</v>
       </c>
       <c r="O8">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="P8">
-        <v>0.113372348992564</v>
+        <v>0.0240359804038997</v>
       </c>
       <c r="Q8">
-        <v>5.360719243648</v>
+        <v>1.022780563406778</v>
       </c>
       <c r="R8">
-        <v>48.246473192832</v>
+        <v>9.205025070660998</v>
       </c>
       <c r="S8">
-        <v>0.01605629129810416</v>
+        <v>0.004024887742978699</v>
       </c>
       <c r="T8">
-        <v>0.01605629129810415</v>
+        <v>0.004024887742978698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.964182</v>
+        <v>13.48348233333333</v>
       </c>
       <c r="H9">
-        <v>35.892546</v>
+        <v>40.450447</v>
       </c>
       <c r="I9">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="J9">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.854428</v>
       </c>
       <c r="O9">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="P9">
-        <v>0.7468035082380574</v>
+        <v>0.9352348927362568</v>
       </c>
       <c r="Q9">
-        <v>35.311996032632</v>
+        <v>39.79617450325733</v>
       </c>
       <c r="R9">
-        <v>317.807964293688</v>
+        <v>358.165570529316</v>
       </c>
       <c r="S9">
-        <v>0.1057656013769534</v>
+        <v>0.1566075272706345</v>
       </c>
       <c r="T9">
-        <v>0.1057656013769534</v>
+        <v>0.1566075272706345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.964182</v>
+        <v>13.48348233333333</v>
       </c>
       <c r="H10">
-        <v>35.892546</v>
+        <v>40.450447</v>
       </c>
       <c r="I10">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="J10">
-        <v>0.1416244034879904</v>
+        <v>0.1674526137625609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5526053333333333</v>
+        <v>0.1285356666666667</v>
       </c>
       <c r="N10">
-        <v>1.657816</v>
+        <v>0.385607</v>
       </c>
       <c r="O10">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="P10">
-        <v>0.1398241427693786</v>
+        <v>0.04072912685984344</v>
       </c>
       <c r="Q10">
-        <v>6.611470782170666</v>
+        <v>1.733108390703223</v>
       </c>
       <c r="R10">
-        <v>59.50323703953599</v>
+        <v>15.597975516329</v>
       </c>
       <c r="S10">
-        <v>0.01980251081293285</v>
+        <v>0.006820198748947709</v>
       </c>
       <c r="T10">
-        <v>0.01980251081293285</v>
+        <v>0.006820198748947707</v>
       </c>
     </row>
   </sheetData>
